--- a/biology/Médecine/Transmission_autosomique_dominante/Transmission_autosomique_dominante.xlsx
+++ b/biology/Médecine/Transmission_autosomique_dominante/Transmission_autosomique_dominante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une maladie génétique est dite de transmission autosomique dominante quand :
 l'allèle morbide (version « malade », mutée du gène en cause) est sur un chromosome non sexuel (ni X, ni Y) ;
@@ -521,13 +533,85 @@
           <t>Schéma général de la transmission autosomique dominante</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les schémas les gamètes porteuses de l'allèle sain sont bleues, les gamètes porteuses de l'allèle muté sont rouges. Les personnes malades sont rouges, les personnes saines sont bleues.
-Union d'un porteur et d'un non porteur
-Comme ce schéma le montre, le risque pour ce couple d'avoir un enfant porteur de l'allèle morbide est de 1/2.
-Union de deux porteurs
-Comme le schéma ci-dessous le montre, ce couple a un risque de :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Transmission_autosomique_dominante</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transmission_autosomique_dominante</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Schéma général de la transmission autosomique dominante</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Union d'un porteur et d'un non porteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme ce schéma le montre, le risque pour ce couple d'avoir un enfant porteur de l'allèle morbide est de 1/2.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Transmission_autosomique_dominante</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transmission_autosomique_dominante</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Schéma général de la transmission autosomique dominante</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Union de deux porteurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme le schéma ci-dessous le montre, ce couple a un risque de :
 3/4 d'avoir un enfant porteur de l'allèle morbide avec un risque de 1/4 d'avoir un porteur homozygote et un risque de 1/2 d'avoir un porteur hétérozygote ;
 1/4 d'avoir un enfant non porteur.
 Dans certains cas les fœtus ou enfants homozygotes décèdent soit in utero, soit très rapidement après la naissance (cas de l'achondroplasie) tandis que dans d'autre cas (Maladie de Huntington), l'homozygotie modifie peu la maladie.
@@ -535,64 +619,66 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Transmission_autosomique_dominante</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Transmission_autosomique_dominante</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Base générale du conseil génétique dans les maladies à transmission autosomique dominante</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En génétique, le proposant désigne la personne atteinte de la maladie génétique à partir de laquelle on fait le conseil génétique.
-Parent d'un proposant
-Fratrie d'un proposant
-Descendance d'un proposant</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En génétique, le proposant désigne la personne atteinte de la maladie génétique à partir de laquelle on fait le conseil génétique.
+</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Transmission_autosomique_dominante</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Transmission_autosomique_dominante</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Exemples de transmission autosomique dominante</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Achondroplasie
 Diabète MODY
